--- a/activity/SIGE_P2.xlsx
+++ b/activity/SIGE_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE3E1C7-F575-4FCB-AA0F-13FE4A6C16A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BEB62E-C088-476D-BD3C-D9EED93F4C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="P2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P2'!$B$1:$D$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P2'!$B$1:$D$105</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'P2'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Conclusiones</t>
-  </si>
-  <si>
-    <t>Mapas almacenados en \report en la carpeta de esta entrega</t>
   </si>
   <si>
     <r>
@@ -1012,6 +1009,12 @@
   </si>
   <si>
     <t>No requerido en esta entrega</t>
+  </si>
+  <si>
+    <t>TIN (opcional)</t>
+  </si>
+  <si>
+    <t>Mapas almacenados en \report\Anexo en la carpeta de esta entrega</t>
   </si>
 </sst>
 </file>
@@ -1333,26 +1336,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1635,13 +1638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F104"/>
+  <dimension ref="B1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E93" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1656,44 +1659,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="32" t="s">
-        <v>24</v>
+      <c r="B3" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(C6:C104)</f>
+        <f>SUM(C6:C105)</f>
         <v>54.800000000000033</v>
       </c>
       <c r="D4" s="7">
-        <f>SUM(D6:D104)</f>
+        <f>SUM(D6:D105)</f>
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(E6:E104)," de ",$D$4, " puntos")</f>
+        <f>_xlfn.CONCAT(SUM(E6:E105)," de ",$D$4, " puntos")</f>
         <v>0 de 0 puntos</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="29"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1721,7 @@
     </row>
     <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="8" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -1738,7 +1741,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4">
         <v>1.5</v>
@@ -1749,7 +1752,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>1.5</v>
@@ -1760,7 +1763,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>1.5</v>
@@ -1771,7 +1774,7 @@
     </row>
     <row r="12" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10"/>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4">
         <v>0.5</v>
@@ -1791,7 +1794,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4">
         <v>0.5</v>
@@ -1802,7 +1805,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4">
         <v>0.5</v>
@@ -1813,7 +1816,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4">
         <v>0.5</v>
@@ -1824,7 +1827,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4">
         <v>0.5</v>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="18" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4">
         <v>0.5</v>
@@ -1857,7 +1860,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4">
         <v>0.5</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="21" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B21" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10"/>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4">
         <v>0.5</v>
@@ -1888,7 +1891,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4">
         <v>0.5</v>
@@ -1899,7 +1902,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4">
         <v>0.5</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4">
         <v>0.5</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4">
         <v>0.5</v>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="28" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1954,7 +1957,7 @@
     </row>
     <row r="29" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1965,7 +1968,7 @@
     </row>
     <row r="30" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B30" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="10"/>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4">
         <v>0.75</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="4">
         <v>0.75</v>
@@ -1995,8 +1998,8 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B33" s="33" t="s">
-        <v>67</v>
+      <c r="B33" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="10"/>
@@ -2005,7 +2008,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -2016,7 +2019,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="36" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B36" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -2037,8 +2040,8 @@
       <c r="F36" s="23"/>
     </row>
     <row r="37" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
-      <c r="B37" s="33" t="s">
-        <v>75</v>
+      <c r="B37" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="10"/>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="4">
         <v>0.75</v>
@@ -2058,7 +2061,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="4">
         <v>0.75</v>
@@ -2069,7 +2072,7 @@
     </row>
     <row r="40" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B40" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="41" spans="2:6" ht="66" x14ac:dyDescent="0.45">
       <c r="B41" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2090,8 +2093,8 @@
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B42" s="33" t="s">
-        <v>85</v>
+      <c r="B42" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="10"/>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2111,7 +2114,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="4">
         <v>0.5</v>
@@ -2122,7 +2125,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4">
         <v>0.5</v>
@@ -2133,7 +2136,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B46" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="4">
         <v>0.5</v>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="47" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
       <c r="B47" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2155,7 +2158,7 @@
     </row>
     <row r="48" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="4">
         <v>0.5</v>
@@ -2165,8 +2168,8 @@
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="2:6" ht="93" x14ac:dyDescent="0.45">
-      <c r="B49" s="33" t="s">
-        <v>101</v>
+      <c r="B49" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="10"/>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2186,7 +2189,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -2197,7 +2200,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -2208,7 +2211,7 @@
     </row>
     <row r="53" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B53" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -2219,7 +2222,7 @@
     </row>
     <row r="54" spans="2:6" ht="66" x14ac:dyDescent="0.45">
       <c r="B54" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="4">
         <v>1.5</v>
@@ -2274,16 +2277,16 @@
     </row>
     <row r="59" spans="2:6" ht="93" x14ac:dyDescent="0.45">
       <c r="B59" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="34"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="21"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B60" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="4">
         <v>0.5</v>
@@ -2291,18 +2294,18 @@
       <c r="D60" s="10"/>
       <c r="E60" s="25"/>
       <c r="F60" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="10"/>
       <c r="E61" s="24"/>
       <c r="F61" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="33" x14ac:dyDescent="0.45">
@@ -2313,12 +2316,12 @@
       <c r="D62" s="10"/>
       <c r="E62" s="21"/>
       <c r="F62" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B63" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="4">
         <v>0.1</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="64" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B64" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" s="4">
         <v>0.1</v>
@@ -2340,7 +2343,7 @@
     </row>
     <row r="65" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B65" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="4">
         <v>0.1</v>
@@ -2351,7 +2354,7 @@
     </row>
     <row r="66" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B66" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" s="4">
         <v>0.1</v>
@@ -2362,7 +2365,7 @@
     </row>
     <row r="67" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B67" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="4">
         <v>0.1</v>
@@ -2373,7 +2376,7 @@
     </row>
     <row r="68" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B68" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="4">
         <v>0.1</v>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="69" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B69" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="4">
         <v>0.1</v>
@@ -2395,7 +2398,7 @@
     </row>
     <row r="70" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B70" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="4">
         <v>0.1</v>
@@ -2406,7 +2409,7 @@
     </row>
     <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B71" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="4">
         <v>0.1</v>
@@ -2417,7 +2420,7 @@
     </row>
     <row r="72" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B72" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="4">
         <v>0.1</v>
@@ -2428,7 +2431,7 @@
     </row>
     <row r="73" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B73" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="4">
         <v>0.1</v>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="74" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B74" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="4">
         <v>0.1</v>
@@ -2450,7 +2453,7 @@
     </row>
     <row r="75" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B75" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="4">
         <v>0.1</v>
@@ -2461,7 +2464,7 @@
     </row>
     <row r="76" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B76" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" s="4">
         <v>0.1</v>
@@ -2472,7 +2475,7 @@
     </row>
     <row r="77" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B77" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="4">
         <v>0.1</v>
@@ -2483,7 +2486,7 @@
     </row>
     <row r="78" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B78" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="4">
         <v>0.1</v>
@@ -2494,7 +2497,7 @@
     </row>
     <row r="79" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B79" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="4">
         <v>0.1</v>
@@ -2505,7 +2508,7 @@
     </row>
     <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B80" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80" s="4">
         <v>0.1</v>
@@ -2516,7 +2519,7 @@
     </row>
     <row r="81" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B81" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81" s="4">
         <v>0.1</v>
@@ -2527,7 +2530,7 @@
     </row>
     <row r="82" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B82" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C82" s="4">
         <v>0.1</v>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="83" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B83" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="4">
         <v>0.1</v>
@@ -2558,7 +2561,7 @@
     </row>
     <row r="85" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B85" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="4">
         <v>0.1</v>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="86" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B86" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C86" s="4">
         <v>0.1</v>
@@ -2586,63 +2589,61 @@
       <c r="D87" s="10"/>
       <c r="E87" s="21"/>
       <c r="F87" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B88" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B88" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="34"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="21"/>
       <c r="F88" s="22"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B89" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="10"/>
+      <c r="B89" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="31"/>
       <c r="E89" s="21"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B90" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="4">
-        <v>1</v>
-      </c>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B90" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="4"/>
       <c r="D90" s="10"/>
       <c r="E90" s="21"/>
       <c r="F90" s="22"/>
     </row>
     <row r="91" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B91" s="12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
       </c>
       <c r="D91" s="10"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="23"/>
-    </row>
-    <row r="92" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="E91" s="21"/>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B92" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
       </c>
       <c r="D92" s="10"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="22"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B93" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -2653,7 +2654,7 @@
     </row>
     <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B94" s="12" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
@@ -2686,7 +2687,7 @@
     </row>
     <row r="97" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B97" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -2695,51 +2696,51 @@
       <c r="E97" s="21"/>
       <c r="F97" s="22"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B98" s="11" t="s">
+    <row r="98" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B98" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="22"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="4">
-        <v>1</v>
-      </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="23"/>
-    </row>
-    <row r="99" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B99" s="11" t="s">
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="23"/>
+    </row>
+    <row r="100" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B100" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="4">
-        <v>1</v>
-      </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="22"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B100" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="34"/>
+      <c r="C100" s="4">
+        <v>1</v>
+      </c>
+      <c r="D100" s="10"/>
       <c r="E100" s="21"/>
       <c r="F100" s="22"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B101" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="4">
-        <v>1</v>
-      </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="23"/>
+      <c r="B101" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B102" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C102" s="4">
         <v>1</v>
@@ -2750,21 +2751,32 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B103" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="4">
+        <v>1</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="23"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B104" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="4">
-        <v>1</v>
-      </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="23"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B104" s="14"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="27"/>
+      <c r="C104" s="4">
+        <v>1</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="23"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/activity/SIGE_P2.xlsx
+++ b/activity/SIGE_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BEB62E-C088-476D-BD3C-D9EED93F4C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F0AAC1-DED7-4D74-840F-DE5773195C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1641,10 +1641,10 @@
   <dimension ref="B1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1685,14 +1685,14 @@
       </c>
       <c r="D4" s="7">
         <f>SUM(D6:D105)</f>
-        <v>0</v>
+        <v>54.800000000000033</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="18" t="str">
         <f>_xlfn.CONCAT(SUM(E6:E105)," de ",$D$4, " puntos")</f>
-        <v>0 de 0 puntos</v>
+        <v>0 de 54.8 puntos</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
@@ -1726,7 +1726,9 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
       <c r="E7" s="24"/>
       <c r="F7" s="23"/>
     </row>
@@ -1746,7 +1748,9 @@
       <c r="C9" s="4">
         <v>1.5</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="23"/>
     </row>
@@ -1757,7 +1761,9 @@
       <c r="C10" s="4">
         <v>1.5</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E10" s="24"/>
       <c r="F10" s="23"/>
     </row>
@@ -1768,7 +1774,9 @@
       <c r="C11" s="4">
         <v>1.5</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E11" s="24"/>
       <c r="F11" s="23"/>
     </row>
@@ -1788,7 +1796,9 @@
       <c r="C13" s="4">
         <v>0.5</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
@@ -1799,7 +1809,9 @@
       <c r="C14" s="4">
         <v>0.5</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E14" s="24"/>
       <c r="F14" s="23"/>
     </row>
@@ -1810,7 +1822,9 @@
       <c r="C15" s="4">
         <v>0.5</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="23"/>
     </row>
@@ -1821,7 +1835,9 @@
       <c r="C16" s="4">
         <v>0.5</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="24"/>
       <c r="F16" s="23"/>
     </row>
@@ -1832,7 +1848,9 @@
       <c r="C17" s="4">
         <v>0.5</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="24"/>
       <c r="F17" s="23"/>
     </row>
@@ -1843,7 +1861,9 @@
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
       <c r="E18" s="24"/>
       <c r="F18" s="23"/>
     </row>
@@ -1854,7 +1874,9 @@
       <c r="C19" s="4">
         <v>0.5</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="24"/>
       <c r="F19" s="23"/>
     </row>
@@ -1865,7 +1887,9 @@
       <c r="C20" s="4">
         <v>0.5</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="24"/>
       <c r="F20" s="23"/>
     </row>
@@ -1885,7 +1909,9 @@
       <c r="C22" s="4">
         <v>0.5</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
@@ -1896,7 +1922,9 @@
       <c r="C23" s="4">
         <v>0.5</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
     </row>
@@ -1907,7 +1935,9 @@
       <c r="C24" s="4">
         <v>0.5</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
     </row>
@@ -1918,7 +1948,9 @@
       <c r="C25" s="4">
         <v>0.5</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
     </row>
@@ -1929,7 +1961,9 @@
       <c r="C26" s="4">
         <v>0.5</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
     </row>
@@ -1940,7 +1974,9 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
       <c r="E27" s="21"/>
       <c r="F27" s="22"/>
     </row>
@@ -1951,7 +1987,9 @@
       <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
       <c r="E28" s="21"/>
       <c r="F28" s="22"/>
     </row>
@@ -1962,7 +2000,9 @@
       <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
     </row>
@@ -1982,7 +2022,9 @@
       <c r="C31" s="4">
         <v>0.75</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E31" s="21"/>
       <c r="F31" s="22"/>
     </row>
@@ -1993,7 +2035,9 @@
       <c r="C32" s="4">
         <v>0.75</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
     </row>
@@ -2013,7 +2057,9 @@
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
       <c r="E34" s="21"/>
       <c r="F34" s="23"/>
     </row>
@@ -2024,7 +2070,9 @@
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
       <c r="E35" s="21"/>
       <c r="F35" s="22"/>
     </row>
@@ -2035,7 +2083,9 @@
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
       <c r="E36" s="25"/>
       <c r="F36" s="23"/>
     </row>
@@ -2055,7 +2105,9 @@
       <c r="C38" s="4">
         <v>0.75</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E38" s="21"/>
       <c r="F38" s="22"/>
     </row>
@@ -2066,7 +2118,9 @@
       <c r="C39" s="4">
         <v>0.75</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E39" s="21"/>
       <c r="F39" s="22"/>
     </row>
@@ -2077,7 +2131,9 @@
       <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
       <c r="E40" s="21"/>
       <c r="F40" s="22"/>
     </row>
@@ -2088,7 +2144,9 @@
       <c r="C41" s="4">
         <v>1</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
       <c r="E41" s="21"/>
       <c r="F41" s="22"/>
     </row>
@@ -2108,7 +2166,9 @@
       <c r="C43" s="4">
         <v>1</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
       <c r="E43" s="21"/>
       <c r="F43" s="22"/>
     </row>
@@ -2119,7 +2179,9 @@
       <c r="C44" s="4">
         <v>0.5</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E44" s="21"/>
       <c r="F44" s="22"/>
     </row>
@@ -2130,7 +2192,9 @@
       <c r="C45" s="4">
         <v>0.5</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E45" s="21"/>
       <c r="F45" s="22"/>
     </row>
@@ -2141,7 +2205,9 @@
       <c r="C46" s="4">
         <v>0.5</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E46" s="21"/>
       <c r="F46" s="22"/>
     </row>
@@ -2152,7 +2218,9 @@
       <c r="C47" s="4">
         <v>1</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
       <c r="E47" s="21"/>
       <c r="F47" s="22"/>
     </row>
@@ -2163,7 +2231,9 @@
       <c r="C48" s="4">
         <v>0.5</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E48" s="21"/>
       <c r="F48" s="22"/>
     </row>
@@ -2183,7 +2253,9 @@
       <c r="C50" s="4">
         <v>1</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
       <c r="E50" s="25"/>
       <c r="F50" s="22"/>
     </row>
@@ -2194,7 +2266,9 @@
       <c r="C51" s="4">
         <v>1</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
       <c r="E51" s="25"/>
       <c r="F51" s="23"/>
     </row>
@@ -2205,7 +2279,9 @@
       <c r="C52" s="4">
         <v>1</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
       <c r="E52" s="25"/>
       <c r="F52" s="23"/>
     </row>
@@ -2216,7 +2292,9 @@
       <c r="C53" s="4">
         <v>1</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
       <c r="E53" s="25"/>
       <c r="F53" s="23"/>
     </row>
@@ -2227,7 +2305,9 @@
       <c r="C54" s="4">
         <v>1.5</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E54" s="25"/>
       <c r="F54" s="23"/>
     </row>
@@ -2238,7 +2318,9 @@
       <c r="C55" s="4">
         <v>1</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
       <c r="E55" s="25"/>
       <c r="F55" s="23"/>
     </row>
@@ -2249,7 +2331,9 @@
       <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D56" s="10"/>
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23"/>
     </row>
@@ -2260,7 +2344,9 @@
       <c r="C57" s="4">
         <v>1</v>
       </c>
-      <c r="D57" s="10"/>
+      <c r="D57" s="10">
+        <v>1</v>
+      </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23"/>
     </row>
@@ -2271,7 +2357,9 @@
       <c r="C58" s="4">
         <v>1</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
       <c r="E58" s="24"/>
       <c r="F58" s="23"/>
     </row>
@@ -2291,7 +2379,9 @@
       <c r="C60" s="4">
         <v>0.5</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E60" s="25"/>
       <c r="F60" s="22" t="s">
         <v>52</v>
@@ -2326,7 +2416,9 @@
       <c r="C63" s="4">
         <v>0.1</v>
       </c>
-      <c r="D63" s="10"/>
+      <c r="D63" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E63" s="24"/>
       <c r="F63" s="23"/>
     </row>
@@ -2337,7 +2429,9 @@
       <c r="C64" s="4">
         <v>0.1</v>
       </c>
-      <c r="D64" s="10"/>
+      <c r="D64" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
     </row>
@@ -2348,7 +2442,9 @@
       <c r="C65" s="4">
         <v>0.1</v>
       </c>
-      <c r="D65" s="10"/>
+      <c r="D65" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
     </row>
@@ -2359,7 +2455,9 @@
       <c r="C66" s="4">
         <v>0.1</v>
       </c>
-      <c r="D66" s="10"/>
+      <c r="D66" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
     </row>
@@ -2370,7 +2468,9 @@
       <c r="C67" s="4">
         <v>0.1</v>
       </c>
-      <c r="D67" s="10"/>
+      <c r="D67" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23"/>
     </row>
@@ -2381,7 +2481,9 @@
       <c r="C68" s="4">
         <v>0.1</v>
       </c>
-      <c r="D68" s="10"/>
+      <c r="D68" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E68" s="24"/>
       <c r="F68" s="23"/>
     </row>
@@ -2392,7 +2494,9 @@
       <c r="C69" s="4">
         <v>0.1</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23"/>
     </row>
@@ -2403,7 +2507,9 @@
       <c r="C70" s="4">
         <v>0.1</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23"/>
     </row>
@@ -2414,7 +2520,9 @@
       <c r="C71" s="4">
         <v>0.1</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
     </row>
@@ -2425,7 +2533,9 @@
       <c r="C72" s="4">
         <v>0.1</v>
       </c>
-      <c r="D72" s="10"/>
+      <c r="D72" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
     </row>
@@ -2436,7 +2546,9 @@
       <c r="C73" s="4">
         <v>0.1</v>
       </c>
-      <c r="D73" s="10"/>
+      <c r="D73" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E73" s="24"/>
       <c r="F73" s="23"/>
     </row>
@@ -2447,7 +2559,9 @@
       <c r="C74" s="4">
         <v>0.1</v>
       </c>
-      <c r="D74" s="10"/>
+      <c r="D74" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
     </row>
@@ -2458,7 +2572,9 @@
       <c r="C75" s="4">
         <v>0.1</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E75" s="24"/>
       <c r="F75" s="23"/>
     </row>
@@ -2469,7 +2585,9 @@
       <c r="C76" s="4">
         <v>0.1</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
     </row>
@@ -2480,7 +2598,9 @@
       <c r="C77" s="4">
         <v>0.1</v>
       </c>
-      <c r="D77" s="10"/>
+      <c r="D77" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23"/>
     </row>
@@ -2491,7 +2611,9 @@
       <c r="C78" s="4">
         <v>0.1</v>
       </c>
-      <c r="D78" s="10"/>
+      <c r="D78" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23"/>
     </row>
@@ -2502,7 +2624,9 @@
       <c r="C79" s="4">
         <v>0.1</v>
       </c>
-      <c r="D79" s="10"/>
+      <c r="D79" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E79" s="24"/>
       <c r="F79" s="23"/>
     </row>
@@ -2513,7 +2637,9 @@
       <c r="C80" s="4">
         <v>0.1</v>
       </c>
-      <c r="D80" s="10"/>
+      <c r="D80" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23"/>
     </row>
@@ -2524,7 +2650,9 @@
       <c r="C81" s="4">
         <v>0.1</v>
       </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
     </row>
@@ -2535,7 +2663,9 @@
       <c r="C82" s="4">
         <v>0.1</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D82" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E82" s="24"/>
       <c r="F82" s="23"/>
     </row>
@@ -2546,7 +2676,9 @@
       <c r="C83" s="4">
         <v>0.1</v>
       </c>
-      <c r="D83" s="10"/>
+      <c r="D83" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E83" s="24"/>
       <c r="F83" s="23"/>
     </row>
@@ -2566,7 +2698,9 @@
       <c r="C85" s="4">
         <v>0.1</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
     </row>
@@ -2577,7 +2711,9 @@
       <c r="C86" s="4">
         <v>0.1</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="D86" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E86" s="24"/>
       <c r="F86" s="23"/>
     </row>
@@ -2626,7 +2762,9 @@
       <c r="C91" s="4">
         <v>1</v>
       </c>
-      <c r="D91" s="10"/>
+      <c r="D91" s="10">
+        <v>1</v>
+      </c>
       <c r="E91" s="21"/>
       <c r="F91" s="22"/>
     </row>
@@ -2637,7 +2775,9 @@
       <c r="C92" s="4">
         <v>1</v>
       </c>
-      <c r="D92" s="10"/>
+      <c r="D92" s="10">
+        <v>1</v>
+      </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23"/>
     </row>
@@ -2648,7 +2788,9 @@
       <c r="C93" s="4">
         <v>1</v>
       </c>
-      <c r="D93" s="10"/>
+      <c r="D93" s="10">
+        <v>1</v>
+      </c>
       <c r="E93" s="21"/>
       <c r="F93" s="22"/>
     </row>
@@ -2659,7 +2801,9 @@
       <c r="C94" s="4">
         <v>1</v>
       </c>
-      <c r="D94" s="10"/>
+      <c r="D94" s="10">
+        <v>1</v>
+      </c>
       <c r="E94" s="21"/>
       <c r="F94" s="22"/>
     </row>
@@ -2670,7 +2814,9 @@
       <c r="C95" s="4">
         <v>1</v>
       </c>
-      <c r="D95" s="10"/>
+      <c r="D95" s="10">
+        <v>1</v>
+      </c>
       <c r="E95" s="21"/>
       <c r="F95" s="22"/>
     </row>
@@ -2681,7 +2827,9 @@
       <c r="C96" s="4">
         <v>1</v>
       </c>
-      <c r="D96" s="10"/>
+      <c r="D96" s="10">
+        <v>1</v>
+      </c>
       <c r="E96" s="21"/>
       <c r="F96" s="22"/>
     </row>
@@ -2692,7 +2840,9 @@
       <c r="C97" s="4">
         <v>1</v>
       </c>
-      <c r="D97" s="10"/>
+      <c r="D97" s="10">
+        <v>1</v>
+      </c>
       <c r="E97" s="21"/>
       <c r="F97" s="22"/>
     </row>
@@ -2703,7 +2853,9 @@
       <c r="C98" s="4">
         <v>1</v>
       </c>
-      <c r="D98" s="10"/>
+      <c r="D98" s="10">
+        <v>1</v>
+      </c>
       <c r="E98" s="21"/>
       <c r="F98" s="22"/>
     </row>
@@ -2714,7 +2866,9 @@
       <c r="C99" s="4">
         <v>1</v>
       </c>
-      <c r="D99" s="10"/>
+      <c r="D99" s="10">
+        <v>1</v>
+      </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23"/>
     </row>
@@ -2725,7 +2879,9 @@
       <c r="C100" s="4">
         <v>1</v>
       </c>
-      <c r="D100" s="10"/>
+      <c r="D100" s="10">
+        <v>1</v>
+      </c>
       <c r="E100" s="21"/>
       <c r="F100" s="22"/>
     </row>
@@ -2745,7 +2901,9 @@
       <c r="C102" s="4">
         <v>1</v>
       </c>
-      <c r="D102" s="10"/>
+      <c r="D102" s="10">
+        <v>1</v>
+      </c>
       <c r="E102" s="25"/>
       <c r="F102" s="23"/>
     </row>
@@ -2756,7 +2914,9 @@
       <c r="C103" s="4">
         <v>1</v>
       </c>
-      <c r="D103" s="10"/>
+      <c r="D103" s="10">
+        <v>1</v>
+      </c>
       <c r="E103" s="25"/>
       <c r="F103" s="23"/>
     </row>
@@ -2767,7 +2927,9 @@
       <c r="C104" s="4">
         <v>1</v>
       </c>
-      <c r="D104" s="10"/>
+      <c r="D104" s="10">
+        <v>1</v>
+      </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23"/>
     </row>
@@ -2787,7 +2949,7 @@
     <hyperlink ref="D1" r:id="rId1" xr:uid="{CFC49F43-4EA8-41CE-9FDD-C77BE999224F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/activity/SIGE_P2.xlsx
+++ b/activity/SIGE_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F0AAC1-DED7-4D74-840F-DE5773195C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD3278-6BFA-4FD0-AC3D-C78EF43C0BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     </r>
   </si>
   <si>
-    <t>Calificación Avance P2 - Proyecto final</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Libro POT_Layer.xlsx almacenado en carpeta \table </t>
     </r>
@@ -1015,6 +1012,10 @@
   </si>
   <si>
     <t>Mapas almacenados en \report\Anexo en la carpeta de esta entrega</t>
+  </si>
+  <si>
+    <t>Calificación Avance P2 - Proyecto final
+Módulo II – Conceptos básicos aplicados de SIG en OT</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1645,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1670,9 +1671,9 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
@@ -1688,7 +1689,7 @@
         <v>54.800000000000033</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="18" t="str">
         <f>_xlfn.CONCAT(SUM(E6:E105)," de ",$D$4, " puntos")</f>
@@ -1734,7 +1735,7 @@
     </row>
     <row r="8" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -1743,7 +1744,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4">
         <v>1.5</v>
@@ -1756,7 +1757,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4">
         <v>1.5</v>
@@ -1769,7 +1770,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4">
         <v>1.5</v>
@@ -1782,7 +1783,7 @@
     </row>
     <row r="12" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10"/>
@@ -1791,7 +1792,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4">
         <v>0.5</v>
@@ -1804,7 +1805,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4">
         <v>0.5</v>
@@ -1817,7 +1818,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4">
         <v>0.5</v>
@@ -1830,7 +1831,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <v>0.5</v>
@@ -1843,7 +1844,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4">
         <v>0.5</v>
@@ -1856,7 +1857,7 @@
     </row>
     <row r="18" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1869,7 +1870,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4">
         <v>0.5</v>
@@ -1882,7 +1883,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4">
         <v>0.5</v>
@@ -1895,7 +1896,7 @@
     </row>
     <row r="21" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10"/>
@@ -1904,7 +1905,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4">
         <v>0.5</v>
@@ -1917,7 +1918,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4">
         <v>0.5</v>
@@ -1930,7 +1931,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4">
         <v>0.5</v>
@@ -1943,7 +1944,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4">
         <v>0.5</v>
@@ -1956,7 +1957,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4">
         <v>0.5</v>
@@ -1969,7 +1970,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1982,7 +1983,7 @@
     </row>
     <row r="28" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1995,7 +1996,7 @@
     </row>
     <row r="29" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -2008,7 +2009,7 @@
     </row>
     <row r="30" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B30" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="10"/>
@@ -2017,7 +2018,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4">
         <v>0.75</v>
@@ -2030,7 +2031,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4">
         <v>0.75</v>
@@ -2043,7 +2044,7 @@
     </row>
     <row r="33" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B33" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="10"/>
@@ -2052,7 +2053,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -2065,7 +2066,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2078,7 +2079,7 @@
     </row>
     <row r="36" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B36" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -2091,7 +2092,7 @@
     </row>
     <row r="37" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
       <c r="B37" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="10"/>
@@ -2100,7 +2101,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="4">
         <v>0.75</v>
@@ -2113,7 +2114,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4">
         <v>0.75</v>
@@ -2126,7 +2127,7 @@
     </row>
     <row r="40" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B40" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -2139,7 +2140,7 @@
     </row>
     <row r="41" spans="2:6" ht="66" x14ac:dyDescent="0.45">
       <c r="B41" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2152,7 +2153,7 @@
     </row>
     <row r="42" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B42" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="10"/>
@@ -2161,7 +2162,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2174,7 +2175,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="4">
         <v>0.5</v>
@@ -2187,7 +2188,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="4">
         <v>0.5</v>
@@ -2200,7 +2201,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B46" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="4">
         <v>0.5</v>
@@ -2213,7 +2214,7 @@
     </row>
     <row r="47" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
       <c r="B47" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2226,7 +2227,7 @@
     </row>
     <row r="48" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="4">
         <v>0.5</v>
@@ -2239,7 +2240,7 @@
     </row>
     <row r="49" spans="2:6" ht="93" x14ac:dyDescent="0.45">
       <c r="B49" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="10"/>
@@ -2248,7 +2249,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2261,7 +2262,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -2274,7 +2275,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -2287,7 +2288,7 @@
     </row>
     <row r="53" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B53" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -2300,7 +2301,7 @@
     </row>
     <row r="54" spans="2:6" ht="66" x14ac:dyDescent="0.45">
       <c r="B54" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4">
         <v>1.5</v>
@@ -2365,7 +2366,7 @@
     </row>
     <row r="59" spans="2:6" ht="93" x14ac:dyDescent="0.45">
       <c r="B59" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="31"/>
@@ -2374,7 +2375,7 @@
     </row>
     <row r="60" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B60" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="4">
         <v>0.5</v>
@@ -2384,18 +2385,18 @@
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="10"/>
       <c r="E61" s="24"/>
       <c r="F61" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="33" x14ac:dyDescent="0.45">
@@ -2406,12 +2407,12 @@
       <c r="D62" s="10"/>
       <c r="E62" s="21"/>
       <c r="F62" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B63" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="4">
         <v>0.1</v>
@@ -2424,7 +2425,7 @@
     </row>
     <row r="64" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B64" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="4">
         <v>0.1</v>
@@ -2437,7 +2438,7 @@
     </row>
     <row r="65" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B65" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="4">
         <v>0.1</v>
@@ -2450,7 +2451,7 @@
     </row>
     <row r="66" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B66" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="4">
         <v>0.1</v>
@@ -2463,7 +2464,7 @@
     </row>
     <row r="67" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B67" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="4">
         <v>0.1</v>
@@ -2476,7 +2477,7 @@
     </row>
     <row r="68" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B68" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="4">
         <v>0.1</v>
@@ -2489,7 +2490,7 @@
     </row>
     <row r="69" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B69" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="4">
         <v>0.1</v>
@@ -2502,7 +2503,7 @@
     </row>
     <row r="70" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B70" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="4">
         <v>0.1</v>
@@ -2515,7 +2516,7 @@
     </row>
     <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B71" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="4">
         <v>0.1</v>
@@ -2528,7 +2529,7 @@
     </row>
     <row r="72" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B72" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="4">
         <v>0.1</v>
@@ -2541,7 +2542,7 @@
     </row>
     <row r="73" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B73" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="4">
         <v>0.1</v>
@@ -2554,7 +2555,7 @@
     </row>
     <row r="74" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B74" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" s="4">
         <v>0.1</v>
@@ -2567,7 +2568,7 @@
     </row>
     <row r="75" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B75" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="4">
         <v>0.1</v>
@@ -2580,7 +2581,7 @@
     </row>
     <row r="76" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B76" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="4">
         <v>0.1</v>
@@ -2593,7 +2594,7 @@
     </row>
     <row r="77" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B77" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="4">
         <v>0.1</v>
@@ -2606,7 +2607,7 @@
     </row>
     <row r="78" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B78" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="4">
         <v>0.1</v>
@@ -2619,7 +2620,7 @@
     </row>
     <row r="79" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B79" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="4">
         <v>0.1</v>
@@ -2632,7 +2633,7 @@
     </row>
     <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B80" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" s="4">
         <v>0.1</v>
@@ -2645,7 +2646,7 @@
     </row>
     <row r="81" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B81" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C81" s="4">
         <v>0.1</v>
@@ -2658,7 +2659,7 @@
     </row>
     <row r="82" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B82" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C82" s="4">
         <v>0.1</v>
@@ -2671,7 +2672,7 @@
     </row>
     <row r="83" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B83" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C83" s="4">
         <v>0.1</v>
@@ -2693,7 +2694,7 @@
     </row>
     <row r="85" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B85" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="4">
         <v>0.1</v>
@@ -2706,7 +2707,7 @@
     </row>
     <row r="86" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B86" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="4">
         <v>0.1</v>
@@ -2725,12 +2726,12 @@
       <c r="D87" s="10"/>
       <c r="E87" s="21"/>
       <c r="F87" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B88" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2748,7 +2749,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B90" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="10"/>
@@ -2757,7 +2758,7 @@
     </row>
     <row r="91" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B91" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -2770,7 +2771,7 @@
     </row>
     <row r="92" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B92" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -2783,7 +2784,7 @@
     </row>
     <row r="93" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B93" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -2796,7 +2797,7 @@
     </row>
     <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B94" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
@@ -2809,7 +2810,7 @@
     </row>
     <row r="95" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B95" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2822,7 +2823,7 @@
     </row>
     <row r="96" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B96" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2835,7 +2836,7 @@
     </row>
     <row r="97" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B97" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -2848,7 +2849,7 @@
     </row>
     <row r="98" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B98" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>

--- a/activity/SIGE_P2.xlsx
+++ b/activity/SIGE_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD3278-6BFA-4FD0-AC3D-C78EF43C0BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0952D4D-6E12-4CC0-A596-DB09BA5919C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,8 +1014,26 @@
     <t>Mapas almacenados en \report\Anexo en la carpeta de esta entrega</t>
   </si>
   <si>
-    <t>Calificación Avance P2 - Proyecto final
-Módulo II – Conceptos básicos aplicados de SIG en OT</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Módulo II – Conceptos básicos aplicados de SIG en OT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Calificación Avance P2 - Proyecto final</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1645,7 +1663,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>

--- a/activity/SIGE_P2.xlsx
+++ b/activity/SIGE_P2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0952D4D-6E12-4CC0-A596-DB09BA5919C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A41057-7120-476C-BD6C-A4AADB46D25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P2" sheetId="1" r:id="rId1"/>
@@ -227,9 +227,6 @@
     <t>3.4. Análisis de espacio público efectivo urbano requerido - EPE</t>
   </si>
   <si>
-    <t>3.5. Análisis de demanda de agua potable y aguas servidas residenciales</t>
-  </si>
-  <si>
     <t>3.6. Visualización dinámica en ArcGIS Pro o en QGIS</t>
   </si>
   <si>
@@ -1033,6 +1030,21 @@
         <family val="2"/>
       </rPr>
       <t>Calificación Avance P2 - Proyecto final</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.5. Análisis de demanda de agua potable y aguas servidas residenciales
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>En el análisis, verifique el nuevo alcance establecido en las Resoluciones 0330 de 2017 y 799 de 2021, ajustando los valores establecidos de dotación neta y porcentaje de retorno.</t>
     </r>
   </si>
 </sst>
@@ -1659,42 +1671,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B5"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.61328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="55.265625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="55.23046875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D1" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B3" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>0 de 54.8 puntos</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="33"/>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1729,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1750,7 @@
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1751,16 +1763,16 @@
       <c r="E7" s="24"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" ht="45.9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
@@ -1773,7 +1785,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1798,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1799,16 +1811,16 @@
       <c r="E11" s="24"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10"/>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1833,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="12" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1846,7 @@
       <c r="E14" s="24"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="12" t="s">
         <v>33</v>
       </c>
@@ -1847,7 +1859,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
@@ -1860,7 +1872,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
@@ -1873,7 +1885,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" ht="51.9" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
@@ -1886,7 +1898,7 @@
       <c r="E18" s="24"/>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
@@ -1899,7 +1911,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="12" t="s">
         <v>34</v>
       </c>
@@ -1912,16 +1924,16 @@
       <c r="E20" s="24"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" ht="45.9" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10"/>
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
@@ -1934,7 +1946,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="12" t="s">
         <v>40</v>
       </c>
@@ -1947,7 +1959,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="12" t="s">
         <v>41</v>
       </c>
@@ -1960,7 +1972,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="12" t="s">
         <v>42</v>
       </c>
@@ -1973,9 +1985,9 @@
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
       <c r="B26" s="12" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4">
         <v>0.5</v>
@@ -1986,9 +1998,9 @@
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1999,9 +2011,9 @@
       <c r="E27" s="21"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -2012,9 +2024,9 @@
       <c r="E28" s="21"/>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" ht="51.9" x14ac:dyDescent="0.4">
       <c r="B29" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -2025,18 +2037,18 @@
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="10"/>
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="4">
         <v>0.75</v>
@@ -2047,9 +2059,9 @@
       <c r="E31" s="21"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4">
         <v>0.75</v>
@@ -2060,18 +2072,18 @@
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B33" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="10"/>
       <c r="E33" s="21"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -2082,9 +2094,9 @@
       <c r="E34" s="21"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2095,9 +2107,9 @@
       <c r="E35" s="21"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B36" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -2108,18 +2120,18 @@
       <c r="E36" s="25"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" ht="45.9" x14ac:dyDescent="0.4">
       <c r="B37" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="10"/>
       <c r="E37" s="21"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="4">
         <v>0.75</v>
@@ -2130,9 +2142,9 @@
       <c r="E38" s="21"/>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B39" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="4">
         <v>0.75</v>
@@ -2143,9 +2155,9 @@
       <c r="E39" s="21"/>
       <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B40" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -2156,9 +2168,9 @@
       <c r="E40" s="21"/>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="2:6" ht="66" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B41" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2169,18 +2181,18 @@
       <c r="E41" s="21"/>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B42" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="10"/>
       <c r="E42" s="21"/>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2191,9 +2203,9 @@
       <c r="E43" s="21"/>
       <c r="F43" s="22"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="4">
         <v>0.5</v>
@@ -2204,9 +2216,9 @@
       <c r="E44" s="21"/>
       <c r="F44" s="22"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="4">
         <v>0.5</v>
@@ -2217,9 +2229,9 @@
       <c r="E45" s="21"/>
       <c r="F45" s="22"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="4">
         <v>0.5</v>
@@ -2230,9 +2242,9 @@
       <c r="E46" s="21"/>
       <c r="F46" s="22"/>
     </row>
-    <row r="47" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" ht="63.45" x14ac:dyDescent="0.4">
       <c r="B47" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2243,9 +2255,9 @@
       <c r="E47" s="21"/>
       <c r="F47" s="22"/>
     </row>
-    <row r="48" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B48" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="4">
         <v>0.5</v>
@@ -2256,18 +2268,18 @@
       <c r="E48" s="21"/>
       <c r="F48" s="22"/>
     </row>
-    <row r="49" spans="2:6" ht="93" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" ht="98.15" x14ac:dyDescent="0.4">
       <c r="B49" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="10"/>
       <c r="E49" s="21"/>
       <c r="F49" s="22"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2278,9 +2290,9 @@
       <c r="E50" s="25"/>
       <c r="F50" s="22"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -2291,9 +2303,9 @@
       <c r="E51" s="25"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -2304,9 +2316,9 @@
       <c r="E52" s="25"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B53" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -2317,9 +2329,9 @@
       <c r="E53" s="25"/>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="2:6" ht="66" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B54" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="4">
         <v>1.5</v>
@@ -2330,7 +2342,7 @@
       <c r="E54" s="25"/>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>16</v>
       </c>
@@ -2343,7 +2355,7 @@
       <c r="E55" s="25"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>20</v>
       </c>
@@ -2356,7 +2368,7 @@
       <c r="E56" s="24"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>1</v>
       </c>
@@ -2369,7 +2381,7 @@
       <c r="E57" s="24"/>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>21</v>
       </c>
@@ -2382,7 +2394,7 @@
       <c r="E58" s="24"/>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="2:6" ht="93" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" ht="86.6" x14ac:dyDescent="0.4">
       <c r="B59" s="9" t="s">
         <v>25</v>
       </c>
@@ -2391,7 +2403,7 @@
       <c r="E59" s="21"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B60" s="11" t="s">
         <v>23</v>
       </c>
@@ -2403,10 +2415,10 @@
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="11" t="s">
         <v>24</v>
       </c>
@@ -2417,7 +2429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B62" s="11" t="s">
         <v>6</v>
       </c>
@@ -2425,12 +2437,12 @@
       <c r="D62" s="10"/>
       <c r="E62" s="21"/>
       <c r="F62" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
       <c r="B63" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="4">
         <v>0.1</v>
@@ -2441,9 +2453,9 @@
       <c r="E63" s="24"/>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
       <c r="B64" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" s="4">
         <v>0.1</v>
@@ -2454,9 +2466,9 @@
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B65" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="4">
         <v>0.1</v>
@@ -2467,9 +2479,9 @@
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B66" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="4">
         <v>0.1</v>
@@ -2480,9 +2492,9 @@
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B67" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="4">
         <v>0.1</v>
@@ -2493,9 +2505,9 @@
       <c r="E67" s="24"/>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B68" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="4">
         <v>0.1</v>
@@ -2506,9 +2518,9 @@
       <c r="E68" s="24"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B69" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="4">
         <v>0.1</v>
@@ -2519,9 +2531,9 @@
       <c r="E69" s="24"/>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B70" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="4">
         <v>0.1</v>
@@ -2532,9 +2544,9 @@
       <c r="E70" s="24"/>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B71" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="4">
         <v>0.1</v>
@@ -2545,9 +2557,9 @@
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
       <c r="B72" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="4">
         <v>0.1</v>
@@ -2558,9 +2570,9 @@
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B73" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4">
         <v>0.1</v>
@@ -2571,9 +2583,9 @@
       <c r="E73" s="24"/>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
       <c r="B74" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="4">
         <v>0.1</v>
@@ -2584,9 +2596,9 @@
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
       <c r="B75" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="4">
         <v>0.1</v>
@@ -2597,9 +2609,9 @@
       <c r="E75" s="24"/>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B76" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4">
         <v>0.1</v>
@@ -2610,9 +2622,9 @@
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B77" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" s="4">
         <v>0.1</v>
@@ -2623,9 +2635,9 @@
       <c r="E77" s="24"/>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B78" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="4">
         <v>0.1</v>
@@ -2636,9 +2648,9 @@
       <c r="E78" s="24"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B79" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" s="4">
         <v>0.1</v>
@@ -2649,9 +2661,9 @@
       <c r="E79" s="24"/>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B80" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="4">
         <v>0.1</v>
@@ -2662,9 +2674,9 @@
       <c r="E80" s="24"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B81" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="4">
         <v>0.1</v>
@@ -2675,9 +2687,9 @@
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B82" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82" s="4">
         <v>0.1</v>
@@ -2688,9 +2700,9 @@
       <c r="E82" s="24"/>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B83" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" s="4">
         <v>0.1</v>
@@ -2701,7 +2713,7 @@
       <c r="E83" s="24"/>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="11" t="s">
         <v>7</v>
       </c>
@@ -2710,9 +2722,9 @@
       <c r="E84" s="21"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:6" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B85" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C85" s="4">
         <v>0.1</v>
@@ -2723,9 +2735,9 @@
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:6" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B86" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C86" s="4">
         <v>0.1</v>
@@ -2736,7 +2748,7 @@
       <c r="E86" s="24"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="11" t="s">
         <v>8</v>
       </c>
@@ -2744,19 +2756,19 @@
       <c r="D87" s="10"/>
       <c r="E87" s="21"/>
       <c r="F87" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B88" s="11" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B88" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="21"/>
       <c r="F88" s="22"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="9" t="s">
         <v>4</v>
       </c>
@@ -2765,18 +2777,18 @@
       <c r="E89" s="21"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="10"/>
       <c r="E90" s="21"/>
       <c r="F90" s="22"/>
     </row>
-    <row r="91" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
       <c r="B91" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -2787,9 +2799,9 @@
       <c r="E91" s="21"/>
       <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
       <c r="B92" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -2800,9 +2812,9 @@
       <c r="E92" s="24"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B93" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -2813,9 +2825,9 @@
       <c r="E93" s="21"/>
       <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B94" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
@@ -2826,9 +2838,9 @@
       <c r="E94" s="21"/>
       <c r="F94" s="22"/>
     </row>
-    <row r="95" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B95" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2839,9 +2851,9 @@
       <c r="E95" s="21"/>
       <c r="F95" s="22"/>
     </row>
-    <row r="96" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B96" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2852,9 +2864,9 @@
       <c r="E96" s="21"/>
       <c r="F96" s="22"/>
     </row>
-    <row r="97" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B97" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -2865,9 +2877,9 @@
       <c r="E97" s="21"/>
       <c r="F97" s="22"/>
     </row>
-    <row r="98" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:6" ht="28.75" x14ac:dyDescent="0.4">
       <c r="B98" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -2878,7 +2890,7 @@
       <c r="E98" s="21"/>
       <c r="F98" s="22"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="11" t="s">
         <v>17</v>
       </c>
@@ -2891,7 +2903,7 @@
       <c r="E99" s="24"/>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B100" s="11" t="s">
         <v>9</v>
       </c>
@@ -2904,7 +2916,7 @@
       <c r="E100" s="21"/>
       <c r="F100" s="22"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="9" t="s">
         <v>5</v>
       </c>
@@ -2913,7 +2925,7 @@
       <c r="E101" s="21"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="11" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +2938,7 @@
       <c r="E102" s="25"/>
       <c r="F102" s="23"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="11" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +2951,7 @@
       <c r="E103" s="25"/>
       <c r="F103" s="23"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="11" t="s">
         <v>12</v>
       </c>
@@ -2952,7 +2964,7 @@
       <c r="E104" s="24"/>
       <c r="F104" s="23"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105" s="14"/>
       <c r="C105" s="15"/>
       <c r="D105" s="16"/>
